--- a/Data/fecha elecciones.xlsx
+++ b/Data/fecha elecciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\analisis02-tipo-de-cambio\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A08CFE2-A46B-4D1D-8005-B3683B30FBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CF3717-56EA-4237-84A2-CC7AA93D1454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1230" windowWidth="14250" windowHeight="14370" xr2:uid="{8EEFEB99-4BC7-44C0-9B82-4E4EF25C409A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8EEFEB99-4BC7-44C0-9B82-4E4EF25C409A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
   <si>
     <t>Año</t>
   </si>
@@ -114,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -125,6 +125,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B127052F-B650-476D-ABB5-983F812DCB40}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B16" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,6 +577,44 @@
         <v>45956</v>
       </c>
     </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2017</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>42960</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4">
+        <v>43030</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4">
+        <v>44514</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/fecha elecciones.xlsx
+++ b/Data/fecha elecciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\analisis02-tipo-de-cambio\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CF3717-56EA-4237-84A2-CC7AA93D1454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEB4587-0149-41B2-AB16-934257C87FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8EEFEB99-4BC7-44C0-9B82-4E4EF25C409A}"/>
   </bookViews>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
-  <si>
-    <t>Año</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
   <si>
     <t>Evento</t>
   </si>
@@ -58,6 +55,18 @@
   </si>
   <si>
     <t>Provincia Bs As</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Presidenciales</t>
+  </si>
+  <si>
+    <t>Legislativas</t>
+  </si>
+  <si>
+    <t>Nacionales</t>
   </si>
 </sst>
 </file>
@@ -114,18 +123,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,182 +454,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B127052F-B650-476D-ABB5-983F812DCB40}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3">
+        <v>42225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
-        <v>40769</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="3">
+        <v>42302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
-        <v>40839</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="3">
+        <v>42330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>42960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
-        <v>42225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3">
-        <v>42302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>42330</v>
+      <c r="C6" s="4">
+        <v>43030</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>2019</v>
+      <c r="A7" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3">
         <v>43688</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3">
         <v>43765</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>2023</v>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="4">
+        <v>44514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
         <v>45151</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5">
         <v>45221</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3">
-        <v>45249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>2025</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3">
-        <v>45907</v>
-      </c>
-    </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
+        <v>45249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45907</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5">
         <v>45956</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2017</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4">
-        <v>42960</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4">
-        <v>43030</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2021</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="4">
-        <v>44451</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="4">
-        <v>44514</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
+    <sortCondition ref="C2:C15"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
